--- a/JDT/Journal-de-Travail_SchertenleibRomain.xlsx
+++ b/JDT/Journal-de-Travail_SchertenleibRomain.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Docker\P_165-NoSQL\JDT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44901031-F68A-4AF4-BA01-17D2F93375DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B26AABA3-49C4-49F6-AB05-F6E77E2C56E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="48">
   <si>
     <t>Auteur:</t>
   </si>
@@ -155,6 +155,36 @@
   </si>
   <si>
     <t>modifier les models afin de les adapters a mongo DB</t>
+  </si>
+  <si>
+    <t>reprendre le projet après les vacances, donc relire le cahier des charges et relire le code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">finir de modifier les models afin de les passer en mangoose </t>
+  </si>
+  <si>
+    <t>se documenter sur la connection avec la base de donner noSQL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">commencer a faire la connection avec mongo db </t>
+  </si>
+  <si>
+    <t xml:space="preserve">resoudre les erreurs lier a la connection </t>
+  </si>
+  <si>
+    <t xml:space="preserve">reprise du projet </t>
+  </si>
+  <si>
+    <t>faire et finire plus tester usercontrolleur</t>
+  </si>
+  <si>
+    <t>faire et finire plus tester authcontrolleur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">faire des recherches sur l'implementation du todoscontolleur </t>
+  </si>
+  <si>
+    <t xml:space="preserve">remplire le journal de travail et faire les commits </t>
   </si>
 </sst>
 </file>
@@ -1158,16 +1188,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>45</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>60</c:v>
+                  <c:v>310</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -2091,16 +2121,16 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.33333333333333331</c:v>
+                  <c:v>0.20202020202020202</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.44444444444444442</c:v>
+                  <c:v>0.6262626262626263</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.22222222222222221</c:v>
+                  <c:v>0.17171717171717171</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -4287,9 +4317,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:O532"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
+      <selection pane="bottomLeft" activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4344,7 +4374,7 @@
       <c r="B3" s="86"/>
       <c r="C3" s="67" t="str">
         <f>QUOTIENT(E4,60)&amp;" heures "&amp;MOD(E4,60)&amp;" minutes"</f>
-        <v>2 heures 15 minutes</v>
+        <v>8 heures 15 minutes</v>
       </c>
       <c r="D3" s="17"/>
       <c r="E3" s="3"/>
@@ -4359,15 +4389,15 @@
       <c r="B4" s="5"/>
       <c r="C4" s="17">
         <f>SUBTOTAL(9,$C$7:$C$531)*60</f>
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="D4" s="17">
         <f>SUBTOTAL(9,$D$7:$D$531)</f>
-        <v>135</v>
+        <v>375</v>
       </c>
       <c r="E4" s="24">
         <f>SUM(C4:D4)</f>
-        <v>135</v>
+        <v>495</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="6"/>
@@ -4585,15 +4615,23 @@
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="62" t="str">
+      <c r="A14" s="62">
         <f>IF(ISBLANK(B14),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B14))</f>
-        <v/>
-      </c>
-      <c r="B14" s="30"/>
+        <v>18</v>
+      </c>
+      <c r="B14" s="30">
+        <v>45775</v>
+      </c>
       <c r="C14" s="31"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="23"/>
+      <c r="D14" s="32">
+        <v>30</v>
+      </c>
+      <c r="E14" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="F14" s="23" t="s">
+        <v>38</v>
+      </c>
       <c r="G14" s="39"/>
       <c r="N14">
         <v>7</v>
@@ -4603,15 +4641,23 @@
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="63" t="str">
+      <c r="A15" s="63">
         <f>IF(ISBLANK(B15),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B15))</f>
-        <v/>
-      </c>
-      <c r="B15" s="34"/>
-      <c r="C15" s="35"/>
+        <v>18</v>
+      </c>
+      <c r="B15" s="34">
+        <v>45775</v>
+      </c>
+      <c r="C15" s="35">
+        <v>1</v>
+      </c>
       <c r="D15" s="36"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="23"/>
+      <c r="E15" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="23" t="s">
+        <v>39</v>
+      </c>
       <c r="G15" s="40"/>
       <c r="N15">
         <v>8</v>
@@ -4621,45 +4667,69 @@
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="62" t="str">
+      <c r="A16" s="62">
         <f>IF(ISBLANK(B16),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B16))</f>
-        <v/>
-      </c>
-      <c r="B16" s="30"/>
+        <v>18</v>
+      </c>
+      <c r="B16" s="30">
+        <v>45775</v>
+      </c>
       <c r="C16" s="31"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="23"/>
+      <c r="D16" s="32">
+        <v>30</v>
+      </c>
+      <c r="E16" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="F16" s="23" t="s">
+        <v>40</v>
+      </c>
       <c r="G16" s="39"/>
       <c r="O16">
         <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="63" t="str">
+      <c r="A17" s="63">
         <f>IF(ISBLANK(B17),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B17))</f>
-        <v/>
-      </c>
-      <c r="B17" s="34"/>
+        <v>18</v>
+      </c>
+      <c r="B17" s="34">
+        <v>45775</v>
+      </c>
       <c r="C17" s="35"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="23"/>
+      <c r="D17" s="36">
+        <v>30</v>
+      </c>
+      <c r="E17" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" s="23" t="s">
+        <v>41</v>
+      </c>
       <c r="G17" s="40"/>
       <c r="O17">
         <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="62" t="str">
+      <c r="A18" s="62">
         <f>IF(ISBLANK(B18),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B18))</f>
-        <v/>
-      </c>
-      <c r="B18" s="30"/>
+        <v>18</v>
+      </c>
+      <c r="B18" s="30">
+        <v>45775</v>
+      </c>
       <c r="C18" s="31"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="23"/>
+      <c r="D18" s="32">
+        <v>30</v>
+      </c>
+      <c r="E18" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="23" t="s">
+        <v>42</v>
+      </c>
       <c r="G18" s="39"/>
       <c r="O18">
         <v>50</v>
@@ -4681,15 +4751,23 @@
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="62" t="str">
+      <c r="A20" s="62">
         <f>IF(ISBLANK(B20),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B20))</f>
-        <v/>
-      </c>
-      <c r="B20" s="30"/>
+        <v>19</v>
+      </c>
+      <c r="B20" s="30">
+        <v>45782</v>
+      </c>
       <c r="C20" s="31"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="23"/>
+      <c r="D20" s="32">
+        <v>10</v>
+      </c>
+      <c r="E20" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="F20" s="23" t="s">
+        <v>43</v>
+      </c>
       <c r="G20" s="39"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
@@ -4698,10 +4776,18 @@
         <v/>
       </c>
       <c r="B21" s="34"/>
-      <c r="C21" s="35"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="23"/>
+      <c r="C21" s="35">
+        <v>1</v>
+      </c>
+      <c r="D21" s="36">
+        <v>20</v>
+      </c>
+      <c r="E21" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" s="23" t="s">
+        <v>44</v>
+      </c>
       <c r="G21" s="40"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
@@ -4711,9 +4797,15 @@
       </c>
       <c r="B22" s="30"/>
       <c r="C22" s="31"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="23"/>
+      <c r="D22" s="32">
+        <v>50</v>
+      </c>
+      <c r="E22" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" s="23" t="s">
+        <v>45</v>
+      </c>
       <c r="G22" s="39"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
@@ -4723,9 +4815,15 @@
       </c>
       <c r="B23" s="34"/>
       <c r="C23" s="35"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="37"/>
-      <c r="F23" s="23"/>
+      <c r="D23" s="36">
+        <v>25</v>
+      </c>
+      <c r="E23" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="F23" s="23" t="s">
+        <v>46</v>
+      </c>
       <c r="G23" s="40"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
@@ -4735,9 +4833,15 @@
       </c>
       <c r="B24" s="30"/>
       <c r="C24" s="31"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="23"/>
+      <c r="D24" s="32">
+        <v>15</v>
+      </c>
+      <c r="E24" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="F24" s="23" t="s">
+        <v>47</v>
+      </c>
       <c r="G24" s="39"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
@@ -10979,11 +11083,11 @@
       </c>
       <c r="B6">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Plannification!E6,'Journal de travail'!$D$7:$D$532)</f>
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="C6">
         <f t="shared" ref="C6:C10" si="0">SUM(A6:B6)</f>
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="E6" s="70" t="str">
         <f>'Journal de travail'!M8</f>
@@ -10991,11 +11095,11 @@
       </c>
       <c r="F6" s="71" t="str">
         <f>QUOTIENT(SUM(A6:B6),60)&amp;" h "&amp;TEXT(MOD(SUM(A6:B6),60), "00")&amp;" min"</f>
-        <v>0 h 45 min</v>
+        <v>1 h 40 min</v>
       </c>
       <c r="G6" s="72">
         <f>SUM(A6:B6)/$C$11</f>
-        <v>0.33333333333333331</v>
+        <v>0.20202020202020202</v>
       </c>
       <c r="L6" s="51" t="str">
         <f>'Journal de travail'!M8</f>
@@ -11012,15 +11116,15 @@
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Plannification!E7,'Journal de travail'!$C$7:$C$532)*60</f>
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="B7">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Plannification!E7,'Journal de travail'!$D$7:$D$532)</f>
-        <v>60</v>
+        <v>190</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>310</v>
       </c>
       <c r="E7" s="73" t="str">
         <f>'Journal de travail'!M9</f>
@@ -11028,11 +11132,11 @@
       </c>
       <c r="F7" s="74" t="str">
         <f t="shared" ref="F7:F11" si="1">QUOTIENT(SUM(A7:B7),60)&amp;" h "&amp;TEXT(MOD(SUM(A7:B7),60), "00")&amp;" min"</f>
-        <v>1 h 00 min</v>
+        <v>5 h 10 min</v>
       </c>
       <c r="G7" s="75">
         <f t="shared" ref="G7:G9" si="2">SUM(A7:B7)/$C$11</f>
-        <v>0.44444444444444442</v>
+        <v>0.6262626262626263</v>
       </c>
       <c r="L7" s="53" t="str">
         <f>'Journal de travail'!M9</f>
@@ -11090,11 +11194,11 @@
       </c>
       <c r="B9">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Plannification!E9,'Journal de travail'!$D$7:$D$532)</f>
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="E9" s="77" t="str">
         <f>'Journal de travail'!M11</f>
@@ -11102,11 +11206,11 @@
       </c>
       <c r="F9" s="74" t="str">
         <f t="shared" si="1"/>
-        <v>0 h 30 min</v>
+        <v>1 h 25 min</v>
       </c>
       <c r="G9" s="75">
         <f t="shared" si="2"/>
-        <v>0.22222222222222221</v>
+        <v>0.17171717171717171</v>
       </c>
       <c r="L9" s="55" t="str">
         <f>'Journal de travail'!M11</f>
@@ -11158,26 +11262,26 @@
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11">
         <f>SUM(A6:A10)</f>
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="B11">
         <f>SUM(B6:B10)</f>
-        <v>135</v>
+        <v>375</v>
       </c>
       <c r="C11">
         <f>SUM(A11:B11)</f>
-        <v>135</v>
+        <v>495</v>
       </c>
       <c r="E11" s="81" t="s">
         <v>18</v>
       </c>
       <c r="F11" s="71" t="str">
         <f t="shared" si="1"/>
-        <v>2 h 15 min</v>
+        <v>8 h 15 min</v>
       </c>
       <c r="G11" s="82">
         <f>C11/C12</f>
-        <v>2.556818181818182E-2</v>
+        <v>9.375E-2</v>
       </c>
       <c r="L11" s="56" t="s">
         <v>18</v>

--- a/JDT/Journal-de-Travail_SchertenleibRomain.xlsx
+++ b/JDT/Journal-de-Travail_SchertenleibRomain.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Docker\P_165-NoSQL\JDT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B26AABA3-49C4-49F6-AB05-F6E77E2C56E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D905A3F-41AC-4742-97BD-56E8E30162B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal de travail" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="56">
   <si>
     <t>Auteur:</t>
   </si>
@@ -185,6 +185,30 @@
   </si>
   <si>
     <t xml:space="preserve">remplire le journal de travail et faire les commits </t>
+  </si>
+  <si>
+    <t>documentation du le cache redis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">faire la partie 2 du projet </t>
+  </si>
+  <si>
+    <t xml:space="preserve">finire l'implementation du todoscontrolleur </t>
+  </si>
+  <si>
+    <t>corriger les erreurs de delete sur la partie 1</t>
+  </si>
+  <si>
+    <t>corriger les erreurs d'update sur la partie 1</t>
+  </si>
+  <si>
+    <t>corriger un point sur la partie 2 avec les utilisatueurs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">documentation du le cache redis et tester des bouts de code </t>
+  </si>
+  <si>
+    <t>commencer l'implémentation du cache redis</t>
   </si>
 </sst>
 </file>
@@ -1188,16 +1212,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>135</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>310</c:v>
+                  <c:v>590</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>85</c:v>
+                  <c:v>155</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -2121,16 +2145,16 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.20202020202020202</c:v>
+                  <c:v>0.15340909090909091</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.6262626262626263</c:v>
+                  <c:v>0.67045454545454541</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.17171717171717171</c:v>
+                  <c:v>0.17613636363636365</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -4317,9 +4341,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:O532"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4374,7 +4398,7 @@
       <c r="B3" s="86"/>
       <c r="C3" s="67" t="str">
         <f>QUOTIENT(E4,60)&amp;" heures "&amp;MOD(E4,60)&amp;" minutes"</f>
-        <v>8 heures 15 minutes</v>
+        <v>14 heures 40 minutes</v>
       </c>
       <c r="D3" s="17"/>
       <c r="E3" s="3"/>
@@ -4389,15 +4413,15 @@
       <c r="B4" s="5"/>
       <c r="C4" s="17">
         <f>SUBTOTAL(9,$C$7:$C$531)*60</f>
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="D4" s="17">
         <f>SUBTOTAL(9,$D$7:$D$531)</f>
-        <v>375</v>
+        <v>640</v>
       </c>
       <c r="E4" s="24">
         <f>SUM(C4:D4)</f>
-        <v>495</v>
+        <v>880</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="6"/>
@@ -4771,11 +4795,13 @@
       <c r="G20" s="39"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="63" t="str">
+      <c r="A21" s="63">
         <f>IF(ISBLANK(B21),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B21))</f>
-        <v/>
-      </c>
-      <c r="B21" s="34"/>
+        <v>19</v>
+      </c>
+      <c r="B21" s="34">
+        <v>45782</v>
+      </c>
       <c r="C21" s="35">
         <v>1</v>
       </c>
@@ -4791,11 +4817,13 @@
       <c r="G21" s="40"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="62" t="str">
+      <c r="A22" s="62">
         <f>IF(ISBLANK(B22),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B22))</f>
-        <v/>
-      </c>
-      <c r="B22" s="30"/>
+        <v>19</v>
+      </c>
+      <c r="B22" s="30">
+        <v>45782</v>
+      </c>
       <c r="C22" s="31"/>
       <c r="D22" s="32">
         <v>50</v>
@@ -4809,11 +4837,13 @@
       <c r="G22" s="39"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="63" t="str">
+      <c r="A23" s="63">
         <f>IF(ISBLANK(B23),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B23))</f>
-        <v/>
-      </c>
-      <c r="B23" s="34"/>
+        <v>19</v>
+      </c>
+      <c r="B23" s="34">
+        <v>45782</v>
+      </c>
       <c r="C23" s="35"/>
       <c r="D23" s="36">
         <v>25</v>
@@ -4827,11 +4857,13 @@
       <c r="G23" s="40"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="62" t="str">
+      <c r="A24" s="62">
         <f>IF(ISBLANK(B24),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B24))</f>
-        <v/>
-      </c>
-      <c r="B24" s="30"/>
+        <v>19</v>
+      </c>
+      <c r="B24" s="30">
+        <v>45782</v>
+      </c>
       <c r="C24" s="31"/>
       <c r="D24" s="32">
         <v>15</v>
@@ -4857,63 +4889,105 @@
       <c r="G25" s="40"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="62" t="str">
+      <c r="A26" s="62">
         <f>IF(ISBLANK(B26),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B26))</f>
-        <v/>
-      </c>
-      <c r="B26" s="30"/>
+        <v>20</v>
+      </c>
+      <c r="B26" s="30">
+        <v>45789</v>
+      </c>
       <c r="C26" s="31"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="33"/>
-      <c r="F26" s="23"/>
+      <c r="D26" s="32">
+        <v>10</v>
+      </c>
+      <c r="E26" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="F26" s="23" t="s">
+        <v>43</v>
+      </c>
       <c r="G26" s="39"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="63" t="str">
+      <c r="A27" s="63">
         <f>IF(ISBLANK(B27),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B27))</f>
-        <v/>
-      </c>
-      <c r="B27" s="34"/>
-      <c r="C27" s="35"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="37"/>
-      <c r="F27" s="23"/>
+        <v>20</v>
+      </c>
+      <c r="B27" s="34">
+        <v>45789</v>
+      </c>
+      <c r="C27" s="35">
+        <v>1</v>
+      </c>
+      <c r="D27" s="36">
+        <v>30</v>
+      </c>
+      <c r="E27" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27" s="23" t="s">
+        <v>49</v>
+      </c>
       <c r="G27" s="40"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="62" t="str">
+      <c r="A28" s="62">
         <f>IF(ISBLANK(B28),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B28))</f>
-        <v/>
-      </c>
-      <c r="B28" s="30"/>
+        <v>20</v>
+      </c>
+      <c r="B28" s="30">
+        <v>45789</v>
+      </c>
       <c r="C28" s="31"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="33"/>
-      <c r="F28" s="22"/>
+      <c r="D28" s="32">
+        <v>35</v>
+      </c>
+      <c r="E28" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="F28" s="22" t="s">
+        <v>50</v>
+      </c>
       <c r="G28" s="39"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="63" t="str">
+      <c r="A29" s="63">
         <f>IF(ISBLANK(B29),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B29))</f>
-        <v/>
-      </c>
-      <c r="B29" s="34"/>
+        <v>20</v>
+      </c>
+      <c r="B29" s="34">
+        <v>45789</v>
+      </c>
       <c r="C29" s="35"/>
-      <c r="D29" s="36"/>
-      <c r="E29" s="37"/>
-      <c r="F29" s="22"/>
+      <c r="D29" s="36">
+        <v>25</v>
+      </c>
+      <c r="E29" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="F29" s="22" t="s">
+        <v>48</v>
+      </c>
       <c r="G29" s="40"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="62" t="str">
+      <c r="A30" s="62">
         <f>IF(ISBLANK(B30),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B30))</f>
-        <v/>
-      </c>
-      <c r="B30" s="30"/>
+        <v>20</v>
+      </c>
+      <c r="B30" s="30">
+        <v>45789</v>
+      </c>
       <c r="C30" s="31"/>
-      <c r="D30" s="32"/>
-      <c r="E30" s="33"/>
-      <c r="F30" s="23"/>
+      <c r="D30" s="32">
+        <v>15</v>
+      </c>
+      <c r="E30" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="F30" s="23" t="s">
+        <v>47</v>
+      </c>
       <c r="G30" s="39"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
@@ -4929,75 +5003,123 @@
       <c r="G31" s="40"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="62" t="str">
+      <c r="A32" s="62">
         <f>IF(ISBLANK(B32),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B32))</f>
-        <v/>
-      </c>
-      <c r="B32" s="30"/>
+        <v>21</v>
+      </c>
+      <c r="B32" s="30">
+        <v>45796</v>
+      </c>
       <c r="C32" s="31"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="33"/>
-      <c r="F32" s="23"/>
+      <c r="D32" s="32">
+        <v>10</v>
+      </c>
+      <c r="E32" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="F32" s="23" t="s">
+        <v>43</v>
+      </c>
       <c r="G32" s="39"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="63" t="str">
+      <c r="A33" s="63">
         <f>IF(ISBLANK(B33),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B33))</f>
-        <v/>
-      </c>
-      <c r="B33" s="34"/>
-      <c r="C33" s="35"/>
+        <v>21</v>
+      </c>
+      <c r="B33" s="34">
+        <v>45796</v>
+      </c>
+      <c r="C33" s="35">
+        <v>1</v>
+      </c>
       <c r="D33" s="36"/>
-      <c r="E33" s="37"/>
-      <c r="F33" s="22"/>
+      <c r="E33" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="F33" s="22" t="s">
+        <v>51</v>
+      </c>
       <c r="G33" s="40"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="62" t="str">
+      <c r="A34" s="62">
         <f>IF(ISBLANK(B34),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B34))</f>
-        <v/>
-      </c>
-      <c r="B34" s="30"/>
+        <v>21</v>
+      </c>
+      <c r="B34" s="30">
+        <v>45796</v>
+      </c>
       <c r="C34" s="31"/>
-      <c r="D34" s="32"/>
-      <c r="E34" s="33"/>
-      <c r="F34" s="22"/>
+      <c r="D34" s="32">
+        <v>30</v>
+      </c>
+      <c r="E34" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="F34" s="22" t="s">
+        <v>52</v>
+      </c>
       <c r="G34" s="39"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="63" t="str">
+      <c r="A35" s="63">
         <f>IF(ISBLANK(B35),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B35))</f>
-        <v/>
-      </c>
-      <c r="B35" s="34"/>
+        <v>21</v>
+      </c>
+      <c r="B35" s="34">
+        <v>45796</v>
+      </c>
       <c r="C35" s="35"/>
-      <c r="D35" s="36"/>
-      <c r="E35" s="37"/>
-      <c r="F35" s="23"/>
+      <c r="D35" s="36">
+        <v>35</v>
+      </c>
+      <c r="E35" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="F35" s="23" t="s">
+        <v>53</v>
+      </c>
       <c r="G35" s="40"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="62" t="str">
+      <c r="A36" s="62">
         <f>IF(ISBLANK(B36),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B36))</f>
-        <v/>
-      </c>
-      <c r="B36" s="30"/>
+        <v>21</v>
+      </c>
+      <c r="B36" s="30">
+        <v>45796</v>
+      </c>
       <c r="C36" s="31"/>
-      <c r="D36" s="32"/>
-      <c r="E36" s="33"/>
-      <c r="F36" s="22"/>
+      <c r="D36" s="32">
+        <v>45</v>
+      </c>
+      <c r="E36" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="F36" s="22" t="s">
+        <v>54</v>
+      </c>
       <c r="G36" s="39"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="63" t="str">
+      <c r="A37" s="63">
         <f>IF(ISBLANK(B37),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B37))</f>
-        <v/>
-      </c>
-      <c r="B37" s="34"/>
+        <v>21</v>
+      </c>
+      <c r="B37" s="34">
+        <v>45796</v>
+      </c>
       <c r="C37" s="35"/>
-      <c r="D37" s="36"/>
-      <c r="E37" s="37"/>
-      <c r="F37" s="22"/>
+      <c r="D37" s="36">
+        <v>30</v>
+      </c>
+      <c r="E37" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="F37" s="22" t="s">
+        <v>55</v>
+      </c>
       <c r="G37" s="40"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -11083,11 +11205,11 @@
       </c>
       <c r="B6">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Plannification!E6,'Journal de travail'!$D$7:$D$532)</f>
-        <v>100</v>
+        <v>135</v>
       </c>
       <c r="C6">
         <f t="shared" ref="C6:C10" si="0">SUM(A6:B6)</f>
-        <v>100</v>
+        <v>135</v>
       </c>
       <c r="E6" s="70" t="str">
         <f>'Journal de travail'!M8</f>
@@ -11095,11 +11217,11 @@
       </c>
       <c r="F6" s="71" t="str">
         <f>QUOTIENT(SUM(A6:B6),60)&amp;" h "&amp;TEXT(MOD(SUM(A6:B6),60), "00")&amp;" min"</f>
-        <v>1 h 40 min</v>
+        <v>2 h 15 min</v>
       </c>
       <c r="G6" s="72">
         <f>SUM(A6:B6)/$C$11</f>
-        <v>0.20202020202020202</v>
+        <v>0.15340909090909091</v>
       </c>
       <c r="L6" s="51" t="str">
         <f>'Journal de travail'!M8</f>
@@ -11116,15 +11238,15 @@
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Plannification!E7,'Journal de travail'!$C$7:$C$532)*60</f>
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="B7">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Plannification!E7,'Journal de travail'!$D$7:$D$532)</f>
-        <v>190</v>
+        <v>350</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
-        <v>310</v>
+        <v>590</v>
       </c>
       <c r="E7" s="73" t="str">
         <f>'Journal de travail'!M9</f>
@@ -11132,11 +11254,11 @@
       </c>
       <c r="F7" s="74" t="str">
         <f t="shared" ref="F7:F11" si="1">QUOTIENT(SUM(A7:B7),60)&amp;" h "&amp;TEXT(MOD(SUM(A7:B7),60), "00")&amp;" min"</f>
-        <v>5 h 10 min</v>
+        <v>9 h 50 min</v>
       </c>
       <c r="G7" s="75">
         <f t="shared" ref="G7:G9" si="2">SUM(A7:B7)/$C$11</f>
-        <v>0.6262626262626263</v>
+        <v>0.67045454545454541</v>
       </c>
       <c r="L7" s="53" t="str">
         <f>'Journal de travail'!M9</f>
@@ -11194,11 +11316,11 @@
       </c>
       <c r="B9">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Plannification!E9,'Journal de travail'!$D$7:$D$532)</f>
-        <v>85</v>
+        <v>155</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
-        <v>85</v>
+        <v>155</v>
       </c>
       <c r="E9" s="77" t="str">
         <f>'Journal de travail'!M11</f>
@@ -11206,11 +11328,11 @@
       </c>
       <c r="F9" s="74" t="str">
         <f t="shared" si="1"/>
-        <v>1 h 25 min</v>
+        <v>2 h 35 min</v>
       </c>
       <c r="G9" s="75">
         <f t="shared" si="2"/>
-        <v>0.17171717171717171</v>
+        <v>0.17613636363636365</v>
       </c>
       <c r="L9" s="55" t="str">
         <f>'Journal de travail'!M11</f>
@@ -11262,26 +11384,26 @@
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11">
         <f>SUM(A6:A10)</f>
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="B11">
         <f>SUM(B6:B10)</f>
-        <v>375</v>
+        <v>640</v>
       </c>
       <c r="C11">
         <f>SUM(A11:B11)</f>
-        <v>495</v>
+        <v>880</v>
       </c>
       <c r="E11" s="81" t="s">
         <v>18</v>
       </c>
       <c r="F11" s="71" t="str">
         <f t="shared" si="1"/>
-        <v>8 h 15 min</v>
+        <v>14 h 40 min</v>
       </c>
       <c r="G11" s="82">
         <f>C11/C12</f>
-        <v>9.375E-2</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="L11" s="56" t="s">
         <v>18</v>
@@ -11325,26 +11447,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="eefa3612-053e-497a-ae76-8a76877f5e22" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b5cf4370-ac38-4b9e-9836-ef6f5df64f24">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010080C9F2488912074FB587B9AD9ADAE5BB" ma:contentTypeVersion="12" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="dfbaf9a740889adeb1cda0be194d08b7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b5cf4370-ac38-4b9e-9836-ef6f5df64f24" xmlns:ns3="eefa3612-053e-497a-ae76-8a76877f5e22" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4f25723b2930dbb90e2332f0c8c46e31" ns2:_="" ns3:_="">
     <xsd:import namespace="b5cf4370-ac38-4b9e-9836-ef6f5df64f24"/>
@@ -11545,10 +11647,41 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="eefa3612-053e-497a-ae76-8a76877f5e22" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b5cf4370-ac38-4b9e-9836-ef6f5df64f24">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A7F8341A-4C75-4689-8311-30F611A1EC8F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="b5cf4370-ac38-4b9e-9836-ef6f5df64f24"/>
+    <ds:schemaRef ds:uri="eefa3612-053e-497a-ae76-8a76877f5e22"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -11567,20 +11700,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A7F8341A-4C75-4689-8311-30F611A1EC8F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="b5cf4370-ac38-4b9e-9836-ef6f5df64f24"/>
-    <ds:schemaRef ds:uri="eefa3612-053e-497a-ae76-8a76877f5e22"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/JDT/Journal-de-Travail_SchertenleibRomain.xlsx
+++ b/JDT/Journal-de-Travail_SchertenleibRomain.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Docker\P_165-NoSQL\JDT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\romai\Documents\GitHub\P_165-NoSQL\JDT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D905A3F-41AC-4742-97BD-56E8E30162B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37961C47-ACFC-41E8-B255-EA691E6906E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal de travail" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="60">
   <si>
     <t>Auteur:</t>
   </si>
@@ -209,6 +209,18 @@
   </si>
   <si>
     <t>commencer l'implémentation du cache redis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">repris du projet </t>
+  </si>
+  <si>
+    <t>faire redis sur la partie 1</t>
+  </si>
+  <si>
+    <t>corriger des petits erreur pour que le code soit le plus propre possible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">finire le Readme </t>
   </si>
 </sst>
 </file>
@@ -677,6 +689,90 @@
   <dxfs count="18">
     <dxf>
       <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCCC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -850,90 +946,6 @@
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
           <bgColor theme="2" tint="-9.9978637043366805E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCCC00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1212,16 +1224,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>135</c:v>
+                  <c:v>160</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>590</c:v>
+                  <c:v>710</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>155</c:v>
+                  <c:v>190</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -2145,16 +2157,16 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.15340909090909091</c:v>
+                  <c:v>0.15094339622641509</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.67045454545454541</c:v>
+                  <c:v>0.66981132075471694</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.17613636363636365</c:v>
+                  <c:v>0.17924528301886791</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -4136,18 +4148,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F2213DF1-F6B1-174C-AC17-4E96BE96C00D}" name="Table1" displayName="Table1" ref="A6:G532" totalsRowShown="0" headerRowDxfId="8" tableBorderDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F2213DF1-F6B1-174C-AC17-4E96BE96C00D}" name="Table1" displayName="Table1" ref="A6:G532" totalsRowShown="0" headerRowDxfId="17" tableBorderDxfId="16">
   <autoFilter ref="A6:G532" xr:uid="{F2213DF1-F6B1-174C-AC17-4E96BE96C00D}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{315BA4B4-9BD9-AB4E-8D40-FABFA0BB2AEA}" name="Semaine" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{315BA4B4-9BD9-AB4E-8D40-FABFA0BB2AEA}" name="Semaine" dataDxfId="15">
       <calculatedColumnFormula>IF(ISBLANK(B7),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B7))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{503C31E9-854D-BF42-85AC-8DFA1376C4D8}" name="Jour" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{B35A0B98-71A0-BA4F-BFAB-00A05EA1F23A}" name="h.      " dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{BE4D837D-FC99-BA48-A82F-B8C8E4CE5BF8}" name="min." dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{A2DCC539-6D2A-B04A-BF8E-6FACE6268D1F}" name="Type" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{4EA406B9-7EF7-D547-AF98-5AD11BE168E9}" name="Description" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{1735360B-2647-6D42-A0E3-3425EE302FFD}" name="Remarques/problèmes" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{503C31E9-854D-BF42-85AC-8DFA1376C4D8}" name="Jour" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{B35A0B98-71A0-BA4F-BFAB-00A05EA1F23A}" name="h.      " dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{BE4D837D-FC99-BA48-A82F-B8C8E4CE5BF8}" name="min." dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{A2DCC539-6D2A-B04A-BF8E-6FACE6268D1F}" name="Type" dataDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{4EA406B9-7EF7-D547-AF98-5AD11BE168E9}" name="Description" dataDxfId="10"/>
+    <tableColumn id="7" xr3:uid="{1735360B-2647-6D42-A0E3-3425EE302FFD}" name="Remarques/problèmes" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4342,8 +4354,8 @@
   <dimension ref="A1:O532"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B37" sqref="B37"/>
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4398,7 +4410,7 @@
       <c r="B3" s="86"/>
       <c r="C3" s="67" t="str">
         <f>QUOTIENT(E4,60)&amp;" heures "&amp;MOD(E4,60)&amp;" minutes"</f>
-        <v>14 heures 40 minutes</v>
+        <v>17 heures 40 minutes</v>
       </c>
       <c r="D3" s="17"/>
       <c r="E3" s="3"/>
@@ -4413,15 +4425,15 @@
       <c r="B4" s="5"/>
       <c r="C4" s="17">
         <f>SUBTOTAL(9,$C$7:$C$531)*60</f>
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="D4" s="17">
         <f>SUBTOTAL(9,$D$7:$D$531)</f>
-        <v>640</v>
+        <v>760</v>
       </c>
       <c r="E4" s="24">
         <f>SUM(C4:D4)</f>
-        <v>880</v>
+        <v>1060</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="6"/>
@@ -5135,63 +5147,105 @@
       <c r="G38" s="39"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="63" t="str">
+      <c r="A39" s="63">
         <f>IF(ISBLANK(B39),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B39))</f>
-        <v/>
-      </c>
-      <c r="B39" s="34"/>
+        <v>22</v>
+      </c>
+      <c r="B39" s="34">
+        <v>45803</v>
+      </c>
       <c r="C39" s="35"/>
-      <c r="D39" s="36"/>
-      <c r="E39" s="37"/>
-      <c r="F39" s="22"/>
+      <c r="D39" s="36">
+        <v>10</v>
+      </c>
+      <c r="E39" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="F39" s="22" t="s">
+        <v>56</v>
+      </c>
       <c r="G39" s="40"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="62" t="str">
+      <c r="A40" s="62">
         <f>IF(ISBLANK(B40),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B40))</f>
-        <v/>
-      </c>
-      <c r="B40" s="30"/>
-      <c r="C40" s="31"/>
-      <c r="D40" s="32"/>
-      <c r="E40" s="33"/>
-      <c r="F40" s="22"/>
+        <v>22</v>
+      </c>
+      <c r="B40" s="30">
+        <v>45803</v>
+      </c>
+      <c r="C40" s="31">
+        <v>1</v>
+      </c>
+      <c r="D40" s="32">
+        <v>45</v>
+      </c>
+      <c r="E40" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="F40" s="22" t="s">
+        <v>57</v>
+      </c>
       <c r="G40" s="39"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="63" t="str">
+      <c r="A41" s="63">
         <f>IF(ISBLANK(B41),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B41))</f>
-        <v/>
-      </c>
-      <c r="B41" s="34"/>
+        <v>22</v>
+      </c>
+      <c r="B41" s="34">
+        <v>45803</v>
+      </c>
       <c r="C41" s="35"/>
-      <c r="D41" s="36"/>
-      <c r="E41" s="37"/>
-      <c r="F41" s="22"/>
+      <c r="D41" s="36">
+        <v>15</v>
+      </c>
+      <c r="E41" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="F41" s="22" t="s">
+        <v>58</v>
+      </c>
       <c r="G41" s="40"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="62" t="str">
+      <c r="A42" s="62">
         <f>IF(ISBLANK(B42),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B42))</f>
-        <v/>
-      </c>
-      <c r="B42" s="30"/>
+        <v>22</v>
+      </c>
+      <c r="B42" s="30">
+        <v>45803</v>
+      </c>
       <c r="C42" s="31"/>
-      <c r="D42" s="32"/>
-      <c r="E42" s="33"/>
-      <c r="F42" s="22"/>
+      <c r="D42" s="32">
+        <v>35</v>
+      </c>
+      <c r="E42" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="F42" s="22" t="s">
+        <v>59</v>
+      </c>
       <c r="G42" s="39"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="63" t="str">
+      <c r="A43" s="63">
         <f>IF(ISBLANK(B43),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B43))</f>
-        <v/>
-      </c>
-      <c r="B43" s="34"/>
+        <v>22</v>
+      </c>
+      <c r="B43" s="34">
+        <v>45803</v>
+      </c>
       <c r="C43" s="35"/>
-      <c r="D43" s="36"/>
-      <c r="E43" s="37"/>
-      <c r="F43" s="22"/>
+      <c r="D43" s="36">
+        <v>15</v>
+      </c>
+      <c r="E43" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="F43" s="22" t="s">
+        <v>47</v>
+      </c>
       <c r="G43" s="40"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -11071,31 +11125,31 @@
     <mergeCell ref="A3:B3"/>
   </mergeCells>
   <conditionalFormatting sqref="E7:E532">
-    <cfRule type="expression" dxfId="17" priority="1">
+    <cfRule type="expression" dxfId="8" priority="1">
       <formula>$E7="Absent"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="2">
+    <cfRule type="expression" dxfId="7" priority="2">
       <formula>$E7="Autre"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="3" stopIfTrue="1">
       <formula>$E7="Design"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="4" stopIfTrue="1">
       <formula>$E7="Présentation"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="5" stopIfTrue="1">
       <formula>$E7="Meeting"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="6" stopIfTrue="1">
       <formula>$E7="Documentation"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="7" stopIfTrue="1">
       <formula>$E7="Test"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="8" stopIfTrue="1">
       <formula>$E7="Analyse"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="10" stopIfTrue="1">
       <formula>$E7="Implémentation"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11205,11 +11259,11 @@
       </c>
       <c r="B6">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Plannification!E6,'Journal de travail'!$D$7:$D$532)</f>
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="C6">
         <f t="shared" ref="C6:C10" si="0">SUM(A6:B6)</f>
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="E6" s="70" t="str">
         <f>'Journal de travail'!M8</f>
@@ -11217,11 +11271,11 @@
       </c>
       <c r="F6" s="71" t="str">
         <f>QUOTIENT(SUM(A6:B6),60)&amp;" h "&amp;TEXT(MOD(SUM(A6:B6),60), "00")&amp;" min"</f>
-        <v>2 h 15 min</v>
+        <v>2 h 40 min</v>
       </c>
       <c r="G6" s="72">
         <f>SUM(A6:B6)/$C$11</f>
-        <v>0.15340909090909091</v>
+        <v>0.15094339622641509</v>
       </c>
       <c r="L6" s="51" t="str">
         <f>'Journal de travail'!M8</f>
@@ -11238,15 +11292,15 @@
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Plannification!E7,'Journal de travail'!$C$7:$C$532)*60</f>
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="B7">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Plannification!E7,'Journal de travail'!$D$7:$D$532)</f>
-        <v>350</v>
+        <v>410</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
-        <v>590</v>
+        <v>710</v>
       </c>
       <c r="E7" s="73" t="str">
         <f>'Journal de travail'!M9</f>
@@ -11254,11 +11308,11 @@
       </c>
       <c r="F7" s="74" t="str">
         <f t="shared" ref="F7:F11" si="1">QUOTIENT(SUM(A7:B7),60)&amp;" h "&amp;TEXT(MOD(SUM(A7:B7),60), "00")&amp;" min"</f>
-        <v>9 h 50 min</v>
+        <v>11 h 50 min</v>
       </c>
       <c r="G7" s="75">
         <f t="shared" ref="G7:G9" si="2">SUM(A7:B7)/$C$11</f>
-        <v>0.67045454545454541</v>
+        <v>0.66981132075471694</v>
       </c>
       <c r="L7" s="53" t="str">
         <f>'Journal de travail'!M9</f>
@@ -11316,11 +11370,11 @@
       </c>
       <c r="B9">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Plannification!E9,'Journal de travail'!$D$7:$D$532)</f>
-        <v>155</v>
+        <v>190</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
-        <v>155</v>
+        <v>190</v>
       </c>
       <c r="E9" s="77" t="str">
         <f>'Journal de travail'!M11</f>
@@ -11328,11 +11382,11 @@
       </c>
       <c r="F9" s="74" t="str">
         <f t="shared" si="1"/>
-        <v>2 h 35 min</v>
+        <v>3 h 10 min</v>
       </c>
       <c r="G9" s="75">
         <f t="shared" si="2"/>
-        <v>0.17613636363636365</v>
+        <v>0.17924528301886791</v>
       </c>
       <c r="L9" s="55" t="str">
         <f>'Journal de travail'!M11</f>
@@ -11384,26 +11438,26 @@
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11">
         <f>SUM(A6:A10)</f>
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="B11">
         <f>SUM(B6:B10)</f>
-        <v>640</v>
+        <v>760</v>
       </c>
       <c r="C11">
         <f>SUM(A11:B11)</f>
-        <v>880</v>
+        <v>1060</v>
       </c>
       <c r="E11" s="81" t="s">
         <v>18</v>
       </c>
       <c r="F11" s="71" t="str">
         <f t="shared" si="1"/>
-        <v>14 h 40 min</v>
+        <v>17 h 40 min</v>
       </c>
       <c r="G11" s="82">
         <f>C11/C12</f>
-        <v>0.16666666666666666</v>
+        <v>0.20075757575757575</v>
       </c>
       <c r="L11" s="56" t="s">
         <v>18</v>
@@ -11447,6 +11501,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="eefa3612-053e-497a-ae76-8a76877f5e22" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b5cf4370-ac38-4b9e-9836-ef6f5df64f24">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010080C9F2488912074FB587B9AD9ADAE5BB" ma:contentTypeVersion="12" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="dfbaf9a740889adeb1cda0be194d08b7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b5cf4370-ac38-4b9e-9836-ef6f5df64f24" xmlns:ns3="eefa3612-053e-497a-ae76-8a76877f5e22" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4f25723b2930dbb90e2332f0c8c46e31" ns2:_="" ns3:_="">
     <xsd:import namespace="b5cf4370-ac38-4b9e-9836-ef6f5df64f24"/>
@@ -11647,17 +11712,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="eefa3612-053e-497a-ae76-8a76877f5e22" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b5cf4370-ac38-4b9e-9836-ef6f5df64f24">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -11668,6 +11722,19 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
+    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
+    <ds:schemaRef ds:uri="eefa3612-053e-497a-ae76-8a76877f5e22"/>
+    <ds:schemaRef ds:uri="b5cf4370-ac38-4b9e-9836-ef6f5df64f24"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A7F8341A-4C75-4689-8311-30F611A1EC8F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11686,19 +11753,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
-    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
-    <ds:schemaRef ds:uri="eefa3612-053e-497a-ae76-8a76877f5e22"/>
-    <ds:schemaRef ds:uri="b5cf4370-ac38-4b9e-9836-ef6f5df64f24"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
   <ds:schemaRefs>
